--- a/StockPredictor/bin/Debug/Packages/Data/Repeater/AAPL/AAPLNoun.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Repeater/AAPL/AAPLNoun.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>Noun</t>
+  </si>
+  <si>
+    <t>Down</t>
+  </si>
+  <si>
+    <t>Neutral</t>
   </si>
 </sst>
 </file>
@@ -424,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +438,7 @@
   <cols>
     <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
@@ -588,6 +594,237 @@
       <c r="W2">
         <v>0</v>
       </c>
+      <c r="X2">
+        <v>-0.35000000000000853</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42649.671817129631</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>52</v>
+      </c>
+      <c r="E3">
+        <v>5924</v>
+      </c>
+      <c r="F3">
+        <v>1046</v>
+      </c>
+      <c r="G3">
+        <v>67</v>
+      </c>
+      <c r="H3">
+        <v>31</v>
+      </c>
+      <c r="I3">
+        <v>88</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>9775</v>
+      </c>
+      <c r="L3">
+        <v>150</v>
+      </c>
+      <c r="M3">
+        <v>70</v>
+      </c>
+      <c r="N3">
+        <v>65</v>
+      </c>
+      <c r="O3">
+        <v>8</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3">
+        <v>35.483819709395277</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="T3" s="2">
+        <v>2.69E-2</v>
+      </c>
+      <c r="U3">
+        <v>4.82</v>
+      </c>
+      <c r="V3">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>-0.35000000000000853</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42649.672152777777</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>2042</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4">
+        <v>35.483819709395277</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="T4" s="2">
+        <v>2.69E-2</v>
+      </c>
+      <c r="U4">
+        <v>4.82</v>
+      </c>
+      <c r="V4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>-0.35000000000000853</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42649.674004629633</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>52</v>
+      </c>
+      <c r="E5">
+        <v>5930</v>
+      </c>
+      <c r="F5">
+        <v>1047</v>
+      </c>
+      <c r="G5">
+        <v>67</v>
+      </c>
+      <c r="H5">
+        <v>31</v>
+      </c>
+      <c r="I5">
+        <v>88</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>10590</v>
+      </c>
+      <c r="L5">
+        <v>150</v>
+      </c>
+      <c r="M5">
+        <v>70</v>
+      </c>
+      <c r="N5">
+        <v>65</v>
+      </c>
+      <c r="O5">
+        <v>8</v>
+      </c>
+      <c r="P5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5">
+        <v>35.483819709395277</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="T5" s="2">
+        <v>2.69E-2</v>
+      </c>
+      <c r="U5">
+        <v>4.82</v>
+      </c>
+      <c r="V5">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/Repeater/AAPL/AAPLNoun.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Repeater/AAPL/AAPLNoun.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Neutral</t>
+  </si>
+  <si>
+    <t>Up</t>
   </si>
 </sst>
 </file>
@@ -430,9 +433,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -825,6 +830,468 @@
       <c r="W5">
         <v>0</v>
       </c>
+      <c r="X5">
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42650.338333333333</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>5500</v>
+      </c>
+      <c r="F6">
+        <v>893</v>
+      </c>
+      <c r="G6">
+        <v>68</v>
+      </c>
+      <c r="H6">
+        <v>29</v>
+      </c>
+      <c r="I6">
+        <v>84</v>
+      </c>
+      <c r="J6">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>8678</v>
+      </c>
+      <c r="L6">
+        <v>149</v>
+      </c>
+      <c r="M6">
+        <v>64</v>
+      </c>
+      <c r="N6">
+        <v>54</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="P6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6">
+        <v>38.48959524716075</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.1046</v>
+      </c>
+      <c r="T6" s="2">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="U6">
+        <v>4.82</v>
+      </c>
+      <c r="V6">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42650.339583333334</v>
+      </c>
+      <c r="B7">
+        <v>-10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>2025</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7">
+        <v>38.48959524716075</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0.1046</v>
+      </c>
+      <c r="T7" s="2">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="U7">
+        <v>4.82</v>
+      </c>
+      <c r="V7">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42650.348738425928</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>22967</v>
+      </c>
+      <c r="F8">
+        <v>3627</v>
+      </c>
+      <c r="G8">
+        <v>61</v>
+      </c>
+      <c r="H8">
+        <v>33</v>
+      </c>
+      <c r="I8">
+        <v>84</v>
+      </c>
+      <c r="J8">
+        <v>14</v>
+      </c>
+      <c r="K8">
+        <v>21122</v>
+      </c>
+      <c r="L8">
+        <v>514</v>
+      </c>
+      <c r="M8">
+        <v>279</v>
+      </c>
+      <c r="N8">
+        <v>80</v>
+      </c>
+      <c r="O8">
+        <v>14</v>
+      </c>
+      <c r="P8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8">
+        <v>38.48959524716075</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0.1046</v>
+      </c>
+      <c r="T8" s="2">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="U8">
+        <v>4.82</v>
+      </c>
+      <c r="V8">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42650.359016203707</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>1929</v>
+      </c>
+      <c r="F9">
+        <v>315</v>
+      </c>
+      <c r="G9">
+        <v>60</v>
+      </c>
+      <c r="H9">
+        <v>39</v>
+      </c>
+      <c r="I9">
+        <v>50</v>
+      </c>
+      <c r="J9">
+        <v>50</v>
+      </c>
+      <c r="K9">
+        <v>5168</v>
+      </c>
+      <c r="L9">
+        <v>41</v>
+      </c>
+      <c r="M9">
+        <v>27</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9">
+        <v>38.48959524716075</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0.1046</v>
+      </c>
+      <c r="T9" s="2">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="U9">
+        <v>4.82</v>
+      </c>
+      <c r="V9">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42650.361435185187</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>5501</v>
+      </c>
+      <c r="F10">
+        <v>893</v>
+      </c>
+      <c r="G10">
+        <v>68</v>
+      </c>
+      <c r="H10">
+        <v>29</v>
+      </c>
+      <c r="I10">
+        <v>84</v>
+      </c>
+      <c r="J10">
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>10208</v>
+      </c>
+      <c r="L10">
+        <v>149</v>
+      </c>
+      <c r="M10">
+        <v>64</v>
+      </c>
+      <c r="N10">
+        <v>54</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="P10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10">
+        <v>38.48959524716075</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0.1046</v>
+      </c>
+      <c r="T10" s="2">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="U10">
+        <v>4.82</v>
+      </c>
+      <c r="V10">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42650.363067129627</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>2039</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11">
+        <v>37.799019424898844</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0.1046</v>
+      </c>
+      <c r="T11" s="2">
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="U11">
+        <v>4.82</v>
+      </c>
+      <c r="V11">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
